--- a/biology/Botanique/Christian_Mentzel/Christian_Mentzel.xlsx
+++ b/biology/Botanique/Christian_Mentzel/Christian_Mentzel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Mentzel (ou Christianus Mentzelius) (Fürstenwalde 1622 - Berlin 1701), médecin, botaniste et sinologue prussien.
 Il s'adonne dans les derniers temps de sa vie à l'étude de la langue chinoise et est l'auteur d'un célèbre dictionnaire germano-chinois. Il est également l'auteur d'un livre sur le Brésil. Membre de l'Académie impériale des Curieux de la Nature, il entretenait une correspondance avec les principaux savants de l'Europe. Il est le médecin personnel de l'électeur de Brandebourg. 
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Index nominum plantarum universalis, Diversis Terrarum, Gentiumque Linguis quotquot ex Auctoribus ad singula Plantarum Nomina excerpi &amp; juxta seriem A.B.C. collocari potuerunt, ad Unum redactus, videlicet: Europæorum Latinâ sive veter Romanâ, Græcâ ... Asiaticorum, Hebræâ, Chaldaicâ, Syriacâ, Arabicâ, Turcicâ cum sua Tripolitana &amp;c... Africanorum Aegyptiacâ, Aethiopicâ, Mauritanicâ sive Barbaricâ ... Americanorum, Brasilianâ, Virginianâ, maexicanâ &amp; adjacantium populorum ... Characteribus Latinorum, Graecorum &amp; Germanorum ... Berolini, Ex officina Rungiana, 1682</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Notices d'autorité : VIAF ISNI IdRef LCCN GND Italie CiNii Belgique Pays-Bas Pologne NUKAT Vatican Portugal Brésil Grèce WorldCat 
  Portail de l’histoire de la zoologie et de la botanique   Portail du Saint-Empire romain germanique   Portail du monde chinois   Portail de la botanique   Portail de la langue latine                 </t>
